--- a/Lesion_analysis/SolaVAX-TB_Lesion-area-cell-counts.xlsx
+++ b/Lesion_analysis/SolaVAX-TB_Lesion-area-cell-counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/rstor-henao_lab/SolaVAX-TB/GitHub/SolaVAX-TB/Lesion_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BF93754-B2D8-054D-8364-A81B1B50C740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ABB0C8-B978-8741-A8C3-B62FE83B03F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19220" yWindow="4200" windowWidth="27640" windowHeight="21120" xr2:uid="{5251375E-FD45-1E48-A8D8-AB796E3F9A62}"/>
   </bookViews>
@@ -70,6 +70,30 @@
     <t>Saline90.4.1.density</t>
   </si>
   <si>
+    <t>Saline90.1.2.density</t>
+  </si>
+  <si>
+    <t>Saline90.1.2.cells</t>
+  </si>
+  <si>
+    <t>Saline90.3.2.density</t>
+  </si>
+  <si>
+    <t>Saline90.3.2.cells</t>
+  </si>
+  <si>
+    <t>Saline90.4.2.cells</t>
+  </si>
+  <si>
+    <t>Saline90.2.2.cells</t>
+  </si>
+  <si>
+    <t>Saline90.2.2.density</t>
+  </si>
+  <si>
+    <t>Saline90.4.2.density</t>
+  </si>
+  <si>
     <t>Saline30.1.2.cells</t>
   </si>
   <si>
@@ -569,30 +593,6 @@
   </si>
   <si>
     <t>Detections</t>
-  </si>
-  <si>
-    <t>Saline.4.2.cells</t>
-  </si>
-  <si>
-    <t>Saline.3.2.cells</t>
-  </si>
-  <si>
-    <t>Saline.4.2.density</t>
-  </si>
-  <si>
-    <t>Saline.2.2.cells</t>
-  </si>
-  <si>
-    <t>Saline.2.2.density</t>
-  </si>
-  <si>
-    <t>Saline.1.2.cells</t>
-  </si>
-  <si>
-    <t>Saline.3.2.density</t>
-  </si>
-  <si>
-    <t>Saline.1.2.density</t>
   </si>
   <si>
     <t>BCG1x90.1.2.density</t>
@@ -976,18 +976,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0AFE34-D143-264B-B5BD-7044B0D63868}">
   <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -998,7 +1001,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>134660</v>
@@ -1012,7 +1015,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>17841</v>
@@ -1026,7 +1029,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>128750</v>
@@ -1040,7 +1043,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>17321</v>
@@ -1054,7 +1057,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>117974</v>
@@ -1068,7 +1071,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -1082,7 +1085,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>111640</v>
@@ -1096,7 +1099,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>2151</v>
@@ -1110,7 +1113,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>115370</v>
@@ -1124,7 +1127,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>5142</v>
@@ -1138,7 +1141,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>108977</v>
@@ -1152,7 +1155,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>5435</v>
@@ -1166,7 +1169,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>153871</v>
@@ -1180,7 +1183,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>14805</v>
@@ -1194,7 +1197,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>145386</v>
@@ -1208,7 +1211,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>10484</v>
@@ -1222,7 +1225,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>132111</v>
@@ -1236,7 +1239,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>3514</v>
@@ -1250,7 +1253,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>126377</v>
@@ -1264,7 +1267,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>11153</v>
@@ -1278,7 +1281,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <v>126378</v>
@@ -1292,7 +1295,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>8245</v>
@@ -1334,7 +1337,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>142123</v>
@@ -1348,7 +1351,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>50348</v>
@@ -1390,7 +1393,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B30">
         <v>132663</v>
@@ -1404,7 +1407,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <v>31469</v>
@@ -1446,7 +1449,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B34">
         <v>103662</v>
@@ -1460,7 +1463,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B35">
         <v>18514</v>
@@ -1502,7 +1505,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B38">
         <v>135479</v>
@@ -1516,7 +1519,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B39">
         <v>24627</v>
@@ -1558,7 +1561,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B42">
         <v>156711</v>
@@ -1572,7 +1575,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B43">
         <v>26722</v>
@@ -1586,7 +1589,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B44">
         <v>136753</v>
@@ -1600,7 +1603,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B45">
         <v>27178</v>
@@ -1614,7 +1617,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B46">
         <v>143701</v>
@@ -1628,7 +1631,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B47">
         <v>5689</v>
@@ -1642,7 +1645,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B48">
         <v>131889</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B49">
         <v>5473</v>
@@ -1670,7 +1673,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B50">
         <v>128711</v>
@@ -1684,7 +1687,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B51">
         <v>11670</v>
@@ -1698,7 +1701,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B52">
         <v>117877</v>
@@ -1712,7 +1715,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B53">
         <v>5115</v>
@@ -1726,7 +1729,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B54">
         <v>118550</v>
@@ -1740,7 +1743,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B55">
         <v>8345</v>
@@ -1754,7 +1757,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B56">
         <v>111457</v>
@@ -1768,7 +1771,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B57">
         <v>3017</v>
@@ -1782,7 +1785,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B58">
         <v>157493</v>
@@ -1796,7 +1799,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B59">
         <v>10610</v>
@@ -1810,7 +1813,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B60">
         <v>112417</v>
@@ -1824,7 +1827,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B61">
         <v>16818</v>
@@ -1838,7 +1841,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B62">
         <v>139264</v>
@@ -1852,7 +1855,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B63">
         <v>13506</v>
@@ -1866,7 +1869,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B64">
         <v>142185</v>
@@ -1880,7 +1883,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B65">
         <v>18647</v>
@@ -1894,7 +1897,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B66">
         <v>126288</v>
@@ -1908,7 +1911,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B67">
         <v>5788</v>
@@ -1922,7 +1925,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B68">
         <v>123645</v>
@@ -1936,7 +1939,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B69">
         <v>24962</v>
@@ -1950,7 +1953,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B70">
         <v>135099</v>
@@ -1964,7 +1967,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B71">
         <v>19769</v>
@@ -1978,7 +1981,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B72">
         <v>146197</v>
@@ -1992,7 +1995,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B73">
         <v>34724</v>
@@ -2006,7 +2009,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B74">
         <v>137161</v>
@@ -2020,7 +2023,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B75">
         <v>28954</v>
@@ -2034,7 +2037,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B76">
         <v>151554</v>
@@ -2048,7 +2051,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B77">
         <v>43098</v>
@@ -2062,7 +2065,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B78">
         <v>82777</v>
@@ -2076,7 +2079,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>6179</v>
@@ -2090,7 +2093,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B80">
         <v>48944</v>
@@ -2104,7 +2107,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B81">
         <v>545</v>
@@ -2118,7 +2121,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B82">
         <v>158762</v>
@@ -2132,7 +2135,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B83">
         <v>15330</v>
@@ -2146,7 +2149,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B84">
         <v>135350</v>
@@ -2160,7 +2163,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B85">
         <v>12287</v>
@@ -2174,7 +2177,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B86">
         <v>158304</v>
@@ -2188,7 +2191,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B87">
         <v>9051</v>
@@ -2202,7 +2205,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>136836</v>
@@ -2216,7 +2219,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B89">
         <v>13507</v>
@@ -2230,7 +2233,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B90">
         <v>126185</v>
@@ -2244,7 +2247,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B91">
         <v>7487</v>
@@ -2258,7 +2261,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B92">
         <v>88231</v>
@@ -2272,7 +2275,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B93">
         <v>7281</v>
@@ -2286,7 +2289,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B94">
         <v>207827</v>
@@ -2300,7 +2303,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B95">
         <v>47485</v>
@@ -2314,7 +2317,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B96">
         <v>123420</v>
@@ -2328,7 +2331,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B97">
         <v>32516</v>
@@ -2342,7 +2345,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B98">
         <v>127310</v>
@@ -2356,7 +2359,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B99">
         <v>34175</v>
@@ -2370,7 +2373,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>131452</v>
@@ -2384,7 +2387,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B101">
         <v>41280</v>
@@ -2398,7 +2401,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B102">
         <v>102817</v>
@@ -2412,7 +2415,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B103">
         <v>22750</v>
@@ -2426,7 +2429,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>135790</v>
@@ -2440,7 +2443,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B105">
         <v>58030</v>
@@ -2454,7 +2457,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B106">
         <v>84427</v>
@@ -2468,7 +2471,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B107">
         <v>4581</v>
@@ -2482,7 +2485,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B108">
         <v>112019</v>
@@ -2496,7 +2499,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B109">
         <v>11972</v>
@@ -2510,7 +2513,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B110">
         <v>99521</v>
@@ -2524,7 +2527,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B111">
         <v>2560</v>
@@ -2538,7 +2541,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B112">
         <v>112608</v>
@@ -2552,7 +2555,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B113">
         <v>4993</v>
@@ -2566,7 +2569,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B114">
         <v>119016</v>
@@ -2580,7 +2583,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B115">
         <v>37134</v>
@@ -2594,7 +2597,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B116">
         <v>126668</v>
@@ -2608,7 +2611,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B117">
         <v>19569</v>
@@ -2622,7 +2625,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B118">
         <v>152135</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B119">
         <v>1338</v>
@@ -2650,7 +2653,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>143756</v>
@@ -2664,7 +2667,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B121">
         <v>3304</v>
@@ -2678,7 +2681,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B122">
         <v>130798</v>
@@ -2692,7 +2695,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B123">
         <v>182</v>
@@ -2706,7 +2709,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>126103</v>
@@ -2720,7 +2723,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B125">
         <v>2743</v>
@@ -2734,7 +2737,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B126">
         <v>156625</v>
@@ -2748,7 +2751,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B127">
         <v>9246</v>
@@ -2762,7 +2765,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B128">
         <v>140369</v>
@@ -2776,7 +2779,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>54398</v>
@@ -2790,7 +2793,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B130">
         <v>176941</v>
@@ -2804,7 +2807,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B131">
         <v>17347</v>
@@ -2818,7 +2821,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B132">
         <v>161103</v>
@@ -2832,7 +2835,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B133">
         <v>21473</v>
@@ -2846,7 +2849,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B134">
         <v>198465</v>
@@ -2860,7 +2863,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B135">
         <v>13285</v>
@@ -2874,7 +2877,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B136">
         <v>92304</v>
@@ -2888,7 +2891,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B137">
         <v>1489</v>
@@ -2902,7 +2905,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B138">
         <v>146143</v>
@@ -2916,7 +2919,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>58997</v>
@@ -2930,7 +2933,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B140">
         <v>157569</v>
@@ -2944,7 +2947,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>69511</v>
@@ -2958,7 +2961,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B142">
         <v>117895</v>
@@ -2972,7 +2975,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B143">
         <v>12070</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>116312</v>
@@ -3000,7 +3003,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>10200</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B146">
         <v>107332</v>
@@ -3028,7 +3031,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B147">
         <v>394</v>
@@ -3042,7 +3045,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>112684</v>
@@ -3056,7 +3059,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B149">
         <v>2465</v>
@@ -3070,7 +3073,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B150">
         <v>132288</v>
@@ -3084,7 +3087,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B151">
         <v>27154</v>
@@ -3098,7 +3101,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B152">
         <v>165754</v>
@@ -3112,7 +3115,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B153">
         <v>65332</v>
@@ -3126,7 +3129,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B154">
         <v>145804</v>
@@ -3140,7 +3143,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B155">
         <v>24675</v>
@@ -3154,7 +3157,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B156">
         <v>157016</v>
@@ -3168,7 +3171,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B157">
         <v>35091</v>
@@ -3182,7 +3185,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="B158">
         <v>127034</v>
@@ -3196,7 +3199,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="B159">
         <v>33884</v>
@@ -3210,7 +3213,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="B160">
         <v>139903</v>
@@ -3224,7 +3227,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="B161">
         <v>59495</v>
@@ -3238,7 +3241,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="B162">
         <v>140940</v>
@@ -3252,7 +3255,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="B163">
         <v>56429</v>
@@ -3266,7 +3269,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="B164">
         <v>146503</v>
@@ -3280,7 +3283,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="B165">
         <v>47957</v>
@@ -3294,7 +3297,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B166">
         <v>140257</v>
@@ -3308,7 +3311,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B167">
         <v>3852</v>
@@ -3322,7 +3325,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B168">
         <v>131788</v>
@@ -3336,7 +3339,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B169">
         <v>5939</v>
@@ -3350,7 +3353,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B170">
         <v>200638</v>
@@ -3364,7 +3367,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B171">
         <v>158976</v>
@@ -3378,7 +3381,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B172">
         <v>183898</v>
@@ -3392,7 +3395,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B173">
         <v>161284</v>
@@ -3406,7 +3409,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B174">
         <v>148681</v>
@@ -3420,7 +3423,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B175">
         <v>9935</v>
@@ -3434,7 +3437,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B176">
         <v>140352</v>
@@ -3448,7 +3451,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B177">
         <v>22257</v>
@@ -3462,7 +3465,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B178">
         <v>167465</v>
@@ -3476,7 +3479,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B179">
         <v>6334</v>
@@ -3490,7 +3493,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B180">
         <v>151069</v>
@@ -3504,7 +3507,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B181">
         <v>11460</v>
@@ -3518,7 +3521,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B182">
         <v>176809</v>
@@ -3532,7 +3535,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B183">
         <v>6576</v>
@@ -3546,7 +3549,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B184">
         <v>82467</v>
@@ -3560,7 +3563,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B185">
         <v>586</v>

--- a/Lesion_analysis/SolaVAX-TB_Lesion-area-cell-counts.xlsx
+++ b/Lesion_analysis/SolaVAX-TB_Lesion-area-cell-counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/rstor-henao_lab/SolaVAX-TB/GitHub/SolaVAX-TB/Lesion_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ABB0C8-B978-8741-A8C3-B62FE83B03F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96957FE2-1AE4-714B-A0B5-25A43847CF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19220" yWindow="4200" windowWidth="27640" windowHeight="21120" xr2:uid="{5251375E-FD45-1E48-A8D8-AB796E3F9A62}"/>
+    <workbookView xWindow="19200" yWindow="2820" windowWidth="27640" windowHeight="21120" xr2:uid="{5251375E-FD45-1E48-A8D8-AB796E3F9A62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0AFE34-D143-264B-B5BD-7044B0D63868}">
   <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
